--- a/bin/Debug/Forms/Permission.xlsx
+++ b/bin/Debug/Forms/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03260D47-CBE2-45C5-BEC4-38DE4D1CF448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECFF108-5CC6-40F8-BED9-3D8EB0B23B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>: التاريخ</t>
   </si>
@@ -93,68 +93,59 @@
     <t>Personnel Head Sig:</t>
   </si>
   <si>
+    <t>رجاء التفضل بالموافقة على :</t>
+  </si>
+  <si>
+    <t>Kindly requested to approve :</t>
+  </si>
+  <si>
+    <t>من الساعة:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From : </t>
+  </si>
+  <si>
+    <t>و ذلك يوم :</t>
+  </si>
+  <si>
+    <t>On :</t>
+  </si>
+  <si>
+    <t>سبب الإذن :</t>
+  </si>
+  <si>
+    <t>Reason :</t>
+  </si>
+  <si>
+    <t>Total Permissons</t>
+  </si>
+  <si>
+    <t>Permissons Spent</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>عدد الإذون</t>
+  </si>
+  <si>
+    <t>الإذون المستهلكه</t>
+  </si>
+  <si>
+    <t>Permisson</t>
+  </si>
+  <si>
+    <t>إذن</t>
+  </si>
+  <si>
+    <t>حتى الساعة:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>إذن تأخير / إنصراف مبكر
-Permisson To Be Late / Leave Early</t>
-  </si>
-  <si>
-    <t>رجاء التفضل بالموافقة على :</t>
-  </si>
-  <si>
-    <t>Kindly requested to approve :</t>
-  </si>
-  <si>
-    <t>التأخير عن العمل</t>
-  </si>
-  <si>
-    <t>Permisson To Be Late</t>
-  </si>
-  <si>
-    <t>من الساعة:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From : </t>
-  </si>
-  <si>
-    <t>حتى الساعة</t>
-  </si>
-  <si>
-    <t>الإنصراف مبكر</t>
-  </si>
-  <si>
-    <t>الساعة :</t>
-  </si>
-  <si>
-    <t>و ذلك يوم :</t>
-  </si>
-  <si>
-    <t>Permisson To Leave Early</t>
-  </si>
-  <si>
-    <t>At :</t>
-  </si>
-  <si>
-    <t>On :</t>
-  </si>
-  <si>
-    <t>سبب الإذن :</t>
-  </si>
-  <si>
-    <t>Reason :</t>
-  </si>
-  <si>
-    <t>Total Permissons</t>
-  </si>
-  <si>
-    <t>Permissons Spent</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>عدد الإذون</t>
-  </si>
-  <si>
-    <t>الإذون المستهلكه</t>
+Permission To Be Late / Leave Early</t>
   </si>
 </sst>
 </file>
@@ -164,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-401]General"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -234,6 +225,19 @@
       <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe Script"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ink Free"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -372,9 +376,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -405,6 +406,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -414,23 +445,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,22 +463,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,274 +512,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>223838</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>442913</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>223838</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>442913</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1069,23 +801,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4E313-B30A-47CB-B1C3-1CE03F6BAA5D}">
-  <dimension ref="A1:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4E313-B30A-47CB-B1C3-1CE03F6BAA5D}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="29" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="16" width="9.5" customWidth="1"/>
@@ -1093,16 +826,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="144.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
-      <c r="B1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1116,15 +849,15 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1146,7 +879,7 @@
       <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2"/>
       <c r="K3" s="9"/>
       <c r="L3" s="3"/>
@@ -1161,14 +894,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1183,14 +916,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1205,13 +938,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1236,7 +969,7 @@
       <c r="H7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1247,20 +980,20 @@
     </row>
     <row r="8" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1276,7 +1009,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1287,20 +1020,18 @@
     </row>
     <row r="10" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="24" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1311,22 +1042,22 @@
     </row>
     <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1335,22 +1066,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="24" t="b">
-        <v>0</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1359,232 +1086,217 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="37"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="G13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="G15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="23"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="10"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16" t="str">
-        <f>"2"&amp;" Permissons"</f>
-        <v>2 Permissons</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="40"/>
+      <c r="B19" s="16" t="str">
+        <f>"2"&amp;" Permissions"</f>
+        <v>2 Permissions</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f>IF(I19&lt;&gt;"",I19&amp;" Permission(s)","")</f>
+        <v/>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f>IF(C19&lt;&gt;"",2-I19&amp;" Permission","")</f>
+        <v/>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="35">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="5"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="11">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="B23" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="32"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="27"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1592,7 +1304,6 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
@@ -1666,138 +1377,24 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId6" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>885825</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId7" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>885825</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/bin/Debug/Forms/Permission.xlsx
+++ b/bin/Debug/Forms/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECFF108-5CC6-40F8-BED9-3D8EB0B23B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF63DC-1AB1-4DEB-B62A-4EA884353C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <t>Reason :</t>
   </si>
   <si>
-    <t>Total Permissons</t>
-  </si>
-  <si>
-    <t>Permissons Spent</t>
-  </si>
-  <si>
     <t>Left</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
   </si>
   <si>
     <t>الإذون المستهلكه</t>
-  </si>
-  <si>
-    <t>Permisson</t>
   </si>
   <si>
     <t>إذن</t>
@@ -146,6 +137,15 @@
   <si>
     <t>إذن تأخير / إنصراف مبكر
 Permission To Be Late / Leave Early</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Total Permissions</t>
+  </si>
+  <si>
+    <t>Permissions Spent</t>
   </si>
 </sst>
 </file>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4E313-B30A-47CB-B1C3-1CE03F6BAA5D}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -827,7 +827,7 @@
     <row r="1" spans="1:16" ht="144.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -1021,14 +1021,14 @@
     <row r="10" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="22"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="23"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
@@ -1072,7 +1072,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1165,23 +1165,23 @@
     <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I18" s="27"/>
     </row>

--- a/bin/Debug/Forms/Permission.xlsx
+++ b/bin/Debug/Forms/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF63DC-1AB1-4DEB-B62A-4EA884353C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FACF93-2375-46C7-A318-D02A53806DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4E313-B30A-47CB-B1C3-1CE03F6BAA5D}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,10 +958,7 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="str">
-        <f>IF(C5&lt;&gt;"",C5&amp;" Department","")</f>
-        <v/>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -978,7 +975,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="43" t="s">
         <v>20</v>
@@ -1000,7 +997,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>

--- a/bin/Debug/Forms/Permission.xlsx
+++ b/bin/Debug/Forms/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FACF93-2375-46C7-A318-D02A53806DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB09520-D8E8-4AED-BC9E-3653BB349DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1116,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
